--- a/biology/Zoologie/Argonaute_(mollusque)/Argonaute_(mollusque).xlsx
+++ b/biology/Zoologie/Argonaute_(mollusque)/Argonaute_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Argonauta
 Argonauta est un genre de mollusques céphalopodes appelés argonautes, le seul actuel de la famille des Argonautidae. Le nom scientifique Argonauta fait référence à la légende antique des Argonautes.
@@ -514,13 +526,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères distinctifs
-Le dimorphisme sexuel est très marqué : les femelles adultes sont 10 à 15 fois plus grandes que les mâles. Les hectocotyles des mâles s'autotomisent dans la cavité palléale de la femelle. Les œufs fécondés (ayant amorcé leur segmentation) sont déposés dans la nacelle calcitique (« coquille » plus ou moins translucide) que la femelle sécrète et maintient avec ses bras dorsaux. Une fois l'éclosion assurée, la femelle meurt et la coquille (déjà connue d'Aristote et de Pline) dérive au gré des flots. À l'exception de la membrane des bras dorsaux, la membrane brachiale est très peu développée.
+          <t>Caractères distinctifs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dimorphisme sexuel est très marqué : les femelles adultes sont 10 à 15 fois plus grandes que les mâles. Les hectocotyles des mâles s'autotomisent dans la cavité palléale de la femelle. Les œufs fécondés (ayant amorcé leur segmentation) sont déposés dans la nacelle calcitique (« coquille » plus ou moins translucide) que la femelle sécrète et maintient avec ses bras dorsaux. Une fois l'éclosion assurée, la femelle meurt et la coquille (déjà connue d'Aristote et de Pline) dérive au gré des flots. À l'exception de la membrane des bras dorsaux, la membrane brachiale est très peu développée.
 Le tégument présente des reflets argentés et une vivre coloration rouge à brune. Comme d'autres céphalopodes, les Argonautes disposent d'encre noire pour créer un « rideau de fumée » défensif.
-Différences avec les genres les plus similaires
-La présence de la nacelle et l'absence de pores aquifères permettent de distinguer ce genre de Tremoctopus.
-Taille
-Les femelles mesurent jusqu'à 12 cm (longueur du manteau), avec une nacelle pouvant atteindre une taille de 30 cm. Les mâles mesurent 2 cm au maximum en longueur totale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Différences avec les genres les plus similaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La présence de la nacelle et l'absence de pores aquifères permettent de distinguer ce genre de Tremoctopus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description et caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles mesurent jusqu'à 12 cm (longueur du manteau), avec une nacelle pouvant atteindre une taille de 30 cm. Les mâles mesurent 2 cm au maximum en longueur totale.
 			Argonauta hians femelle
 			Argonauta hians mâle
 			Argonauta argo
@@ -536,63 +623,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Argonaute_(mollusque)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Liste des espèces</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Argonaute_(mollusque)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Répartition et habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Toutes les mers chaudes, en particulier la Méditerranée. Ce sont des espèces épipélagiques, océaniques, vivant dans les eaux de surface.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -614,10 +644,73 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toutes les mers chaudes, en particulier la Méditerranée. Ce sont des espèces épipélagiques, océaniques, vivant dans les eaux de surface.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argonaute_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Pêche et utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Argonautes ne sont pas recherchés pour la pêche, mais celle-ci les impacte néanmoins, car parfois des masses de plusieurs dizaines de kilogrammes par trait de chalut pélagique, peuvent être accidentellement capturées, et la plupart des individus sortis de l'eau et écrasés ne survivent pas. Tout au plus peuvent-ils alors servir d'appâts.
 </t>
